--- a/glaciar_1945/punto.xlsx
+++ b/glaciar_1945/punto.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +371,11 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>-42.52972781046685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>10000</v>
       </c>
     </row>
